--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB091.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB091.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL_SVN\Documents\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17ED4C9-317F-4436-8700-BC85D93D6422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -112,9 +113,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Key ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -482,12 +480,15 @@
   <si>
     <t>設質定年月日，以YYYYMMDD(民國年)表示</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -708,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,10 +719,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,7 +740,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -748,9 +749,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -766,19 +764,16 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -810,11 +805,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="?蟓%U?&amp;H?_x0008__x001e__x000d_?_x000f__x0001__x0001_" xfId="3"/>
+    <cellStyle name="?蟓%U?&amp;H?_x0008__x001e__x000d_?_x000f__x0001__x0001_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="4"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,9 +825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -870,9 +865,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -907,7 +902,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1115,64 +1110,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.21875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="67.21875" style="16" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="13" customWidth="1"/>
     <col min="10" max="10" width="70.44140625" style="11" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="14"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="32"/>
+      <c r="A3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="30"/>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1180,10 +1175,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1191,38 +1186,38 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="32"/>
+      <c r="A5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="32"/>
+      <c r="A6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="32"/>
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="30"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -1239,49 +1234,49 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="G8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="11"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>3</v>
@@ -1290,26 +1285,26 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17" t="s">
-        <v>100</v>
+      <c r="G10" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="14">
+        <v>53</v>
+      </c>
+      <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>3</v>
@@ -1318,26 +1313,26 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="17" t="s">
-        <v>43</v>
+      <c r="G11" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="14">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13">
         <v>2</v>
       </c>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -1346,26 +1341,26 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="17" t="s">
-        <v>44</v>
+      <c r="G12" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="14">
+        <v>27</v>
+      </c>
+      <c r="I12" s="13">
         <v>3</v>
       </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>3</v>
@@ -1374,26 +1369,26 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="17" t="s">
-        <v>40</v>
+      <c r="G13" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="14">
+        <v>53</v>
+      </c>
+      <c r="I13" s="13">
         <v>4</v>
       </c>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1402,26 +1397,26 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>5</v>
       </c>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
@@ -1430,26 +1425,26 @@
         <v>2</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="17" t="s">
-        <v>101</v>
+      <c r="G15" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="14">
+        <v>53</v>
+      </c>
+      <c r="I15" s="13">
         <v>6</v>
       </c>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -1458,138 +1453,138 @@
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="17" t="s">
-        <v>86</v>
+      <c r="G16" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="14">
+        <v>25</v>
+      </c>
+      <c r="I16" s="13">
         <v>7</v>
       </c>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9">
         <v>8</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="17" t="s">
-        <v>80</v>
+      <c r="G17" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="14">
+        <v>71</v>
+      </c>
+      <c r="I17" s="13">
         <v>8</v>
       </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9">
         <v>7</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="17" t="s">
-        <v>82</v>
+      <c r="G18" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="14">
+        <v>80</v>
+      </c>
+      <c r="I18" s="13">
         <v>9</v>
       </c>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9">
         <v>10</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>10</v>
       </c>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9">
         <v>7</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="17" t="s">
-        <v>108</v>
+      <c r="G20" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="14">
+        <v>80</v>
+      </c>
+      <c r="I20" s="13">
         <v>11</v>
       </c>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -1598,26 +1593,26 @@
         <v>8</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="17" t="s">
-        <v>85</v>
+      <c r="G21" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="13">
+        <v>12</v>
+      </c>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="I21" s="14">
-        <v>12</v>
-      </c>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -1626,24 +1621,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="14">
+        <v>53</v>
+      </c>
+      <c r="I22" s="13">
         <v>13</v>
       </c>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
@@ -1652,24 +1647,24 @@
         <v>10</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="14">
+        <v>25</v>
+      </c>
+      <c r="I23" s="13">
         <v>14</v>
       </c>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -1678,80 +1673,80 @@
         <v>3</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="14">
+        <v>89</v>
+      </c>
+      <c r="I24" s="13">
         <v>15</v>
       </c>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9">
         <v>5</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="17" t="s">
-        <v>106</v>
+      <c r="G25" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="14">
+        <v>103</v>
+      </c>
+      <c r="I25" s="13">
         <v>16</v>
       </c>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9">
         <v>8</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="17" t="s">
-        <v>70</v>
+      <c r="G26" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="13">
+        <v>17</v>
+      </c>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>19</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="14">
-        <v>17</v>
-      </c>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>19</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -1760,114 +1755,110 @@
         <v>14</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="17" t="s">
-        <v>69</v>
+      <c r="G27" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="14">
+        <v>90</v>
+      </c>
+      <c r="I27" s="13">
         <v>18</v>
       </c>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="9">
         <v>5</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="17" t="s">
-        <v>60</v>
+      <c r="G28" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="14">
+        <v>50</v>
+      </c>
+      <c r="I28" s="13">
         <v>19</v>
       </c>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="9">
-        <v>8</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="9">
         <v>6</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="9">
-        <v>8</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
@@ -1876,77 +1867,77 @@
         <v>6</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="9"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1962,13 +1953,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD2 A34:XFD1048576 A1:B1 E1:XFD1 A9 D9 F9 K8:XFD8 B29:XFD29 A4:XFD6 A3:B3 D3:XFD3 H9:XFD9 A8:I8 B31:XFD32 B30:F30 H30:XFD30 B33:XFD33 A7:B7 D7:XFD7" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD2 A34:XFD1048576 A1:B1 E1:XFD1 A9 D9 F9 K8:XFD8 B29:C29 A4:XFD6 A3:B3 D3:XFD3 H9:XFD9 A8:I8 B32:XFD32 B30:F30 H30:XFD30 B33:XFD33 A7:B7 D7:XFD7 F29:XFD29 B31:C31 F31:XFD31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2003,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2012,32 +2003,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="33.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
